--- a/URS/DbLayouts/L2-業務作業/ReltMain.xlsx
+++ b/URS/DbLayouts/L2-業務作業/ReltMain.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20952" windowHeight="7812" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
@@ -142,81 +142,114 @@
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ReltCode</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReltMain</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReltName</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>關係人主檔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>關係人姓名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>關係人身分證字號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CaseNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>備註</t>
   </si>
   <si>
     <t>Reltmark</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 持股比例
+2 被持股比例
+3 持有股份
+4 出資額
+5 關係人
+9 其它</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註類型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemarkType</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseNo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>借戶人戶號</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>eLoan案件編號</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseNo =</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款戶關係人/關係企業主檔</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔(CustRelationType)
 01 本人
 02 配偶
 03 祖(外祖)父母
@@ -230,120 +263,115 @@
 11 董事
 12 監察人
 99 其他</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 持股比例
-2 被持股比例
-3 持有股份
-4 出資額
-5 關係人
-9 其它</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>關係人職稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註類型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>RemarkType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReltId</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>借戶人戶號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReltId =</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReltIdFirst</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReltIdEq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseNoFirst</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNoEq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>eLoan案件編號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReltId =</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseNo =</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>關係</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CustNo =</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseNo,CustNo,ReltId</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseNoCustNoReltIdFirst</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CaseNo = ,AND CustNo = ,AND ReltId = </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>申請日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMALD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplDate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseNoFirst</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoEq</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoFirst</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseNoEq</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByBoth</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CaseNo = ,AND CustNo = </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo ASC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseNo ASC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新案件記號</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalFg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>關係人客戶識別碼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseNo,CustNo,ReltUKey</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReltUKey</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReltUKeyFirst</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReltUKeyEq</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReltUKey =</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReltMain</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -521,10 +549,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,102 +572,106 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1"/>
     <cellStyle name="一般 2 2" xfId="2"/>
     <cellStyle name="一般 2 3" xfId="3"/>
     <cellStyle name="一般 2 4" xfId="4"/>
     <cellStyle name="一般 2 5" xfId="5"/>
+    <cellStyle name="一般 2 6" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -938,345 +973,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="1" max="1" width="5.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="18">
+        <v>7</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>2</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="23">
+        <v>7</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>3</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="27">
+        <v>32</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" ht="243" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
+        <v>4</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="16">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
+        <v>5</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>6</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="11" t="s">
+      <c r="C14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="7" t="s">
+      <c r="D14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="19">
+        <v>100</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <v>7</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C15" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <v>8</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="23">
+        <v>8</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <v>9</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>10</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="16">
         <v>6</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
-        <v>1</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="19">
-        <v>7</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
-        <v>2</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="24">
-        <v>7</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
+        <v>11</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <v>12</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="17">
-        <v>10</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
-        <v>4</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="17">
-        <v>100</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
-        <v>5</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="17">
-        <v>2</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
+      <c r="E20" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
-        <v>7</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="20">
-        <v>100</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
-        <v>8</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
-        <v>9</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="17">
-        <v>6</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
-        <v>10</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
-        <v>11</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="17">
-        <v>6</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1288,7 +1342,7 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1296,74 +1350,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>62</v>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
